--- a/dashboard_loader/health_healthyweight_uploader/health_healthyweight.xlsx
+++ b/dashboard_loader/health_healthyweight_uploader/health_healthyweight.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
   <si>
     <t xml:space="preserve">Increase the proportion of adults at a healthy body weight</t>
   </si>
@@ -119,7 +119,16 @@
     <t xml:space="preserve">Data for the Northern Territory should be used with care as very remote areas were excluded from the Australian Health Survey, which translates to exclusion of around 25 per cent of the Northern Territory population.</t>
   </si>
   <si>
-    <t xml:space="preserve">Sourced from ABS Australian Health Survey</t>
+    <t xml:space="preserve">Source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABS (unpublished) Australian Health Survey 2014–15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABS (unpublished) Australian Health Survey, 2011-13 (2011-12 Core component)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABS (unpublished), National Health Survey 2007-08.</t>
   </si>
 </sst>
 </file>
@@ -132,11 +141,12 @@
     <numFmt numFmtId="166" formatCode="########\ ###\ ##0.0;\-########\ ###\ ##0.0;\–"/>
     <numFmt numFmtId="167" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="8">
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
+  <fonts count="18">
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -152,6 +162,87 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="24"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF006600"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF996600"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFCC0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -174,14 +265,8 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -190,17 +275,74 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor rgb="FFDDDDDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC0000"/>
+        <bgColor rgb="FF800000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF003300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFFFCCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FF808080"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF808080"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF808080"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF808080"/>
+      </bottom>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -218,7 +360,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="37">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -242,66 +384,194 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="36" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="2" xfId="36" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="2" xfId="36" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="16" fillId="0" borderId="0" xfId="36" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="16" fillId="0" borderId="0" xfId="36" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="3" xfId="36" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="3" xfId="36" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="9" borderId="3" xfId="36" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="36" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="36" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="23">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Status" xfId="26" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Good" xfId="27" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Neutral" xfId="28" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Bad" xfId="29" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Warning" xfId="30" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Error" xfId="31" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent" xfId="32" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 1" xfId="33" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 2" xfId="34" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 3" xfId="35" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="36" builtinId="53" customBuiltin="true"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFCC0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF006600"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF996600"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFDDDDDD"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCCCC"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -312,13 +582,13 @@
   </sheetPr>
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:B9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -721,17 +991,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:B9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.6428571428571"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="82.1122448979592"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.5204081632653"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="82.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -797,15 +1067,27 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1"/>
-      <c r="B9" s="10" t="s">
+      <c r="A9" s="1" t="s">
         <v>32</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="11" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
